--- a/kimai-data/27/pay-period-27.xlsx
+++ b/kimai-data/27/pay-period-27.xlsx
@@ -607,13 +607,13 @@
         <f>F11 + G11</f>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I11" t="str">
-        <v>Short 80.00 hours</v>
+        <v>Extra 6.92 hours carry over</v>
       </c>
     </row>
     <row r="12">
